--- a/data/formatted/basicdata200405.xlsx
+++ b/data/formatted/basicdata200405.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEDD482-036B-40DA-925F-CAB42295A105}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699D629F-745B-43D6-B133-D97C898FD99A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="2420" windowWidth="11520" windowHeight="6000" xr2:uid="{BB912F80-8919-4CEA-9112-12FD53D40098}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{BB912F80-8919-4CEA-9112-12FD53D40098}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/formatted/basicdata200405.xlsx
+++ b/data/formatted/basicdata200405.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699D629F-745B-43D6-B133-D97C898FD99A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24993C5D-1CCD-4271-8B51-02F009EFD2E3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{BB912F80-8919-4CEA-9112-12FD53D40098}"/>
   </bookViews>

--- a/data/formatted/basicdata200405.xlsx
+++ b/data/formatted/basicdata200405.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24993C5D-1CCD-4271-8B51-02F009EFD2E3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E22671-B912-4EC2-A093-2E2867D4C55F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{BB912F80-8919-4CEA-9112-12FD53D40098}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BB912F80-8919-4CEA-9112-12FD53D40098}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,199 +114,199 @@
     <t>PersonalFouls</t>
   </si>
   <si>
-    <t>Alabama A&amp;M NCAA</t>
-  </si>
-  <si>
-    <t>Alabama-Birmingham NCAA</t>
-  </si>
-  <si>
-    <t>Alabama NCAA</t>
-  </si>
-  <si>
-    <t>Arizona NCAA</t>
-  </si>
-  <si>
-    <t>Boston College NCAA</t>
-  </si>
-  <si>
-    <t>Bucknell NCAA</t>
-  </si>
-  <si>
-    <t>Central Florida NCAA</t>
-  </si>
-  <si>
-    <t>Charlotte NCAA</t>
-  </si>
-  <si>
-    <t>Chattanooga NCAA</t>
-  </si>
-  <si>
-    <t>Cincinnati NCAA</t>
-  </si>
-  <si>
-    <t>Connecticut NCAA</t>
-  </si>
-  <si>
-    <t>Creighton NCAA</t>
-  </si>
-  <si>
-    <t>Delaware State NCAA</t>
-  </si>
-  <si>
-    <t>Duke NCAA</t>
-  </si>
-  <si>
-    <t>Eastern Kentucky NCAA</t>
-  </si>
-  <si>
-    <t>Fairleigh Dickinson NCAA</t>
-  </si>
-  <si>
-    <t>Florida NCAA</t>
-  </si>
-  <si>
-    <t>George Washington NCAA</t>
-  </si>
-  <si>
-    <t>Georgia Tech NCAA</t>
-  </si>
-  <si>
-    <t>Gonzaga NCAA</t>
-  </si>
-  <si>
-    <t>Illinois NCAA</t>
-  </si>
-  <si>
-    <t>Iowa State NCAA</t>
-  </si>
-  <si>
-    <t>Iowa NCAA</t>
-  </si>
-  <si>
-    <t>Kansas NCAA</t>
-  </si>
-  <si>
-    <t>Kentucky NCAA</t>
-  </si>
-  <si>
-    <t>Louisiana NCAA</t>
-  </si>
-  <si>
-    <t>Louisiana State NCAA</t>
-  </si>
-  <si>
-    <t>Louisville NCAA</t>
-  </si>
-  <si>
-    <t>Michigan State NCAA</t>
-  </si>
-  <si>
-    <t>Milwaukee NCAA</t>
-  </si>
-  <si>
-    <t>Minnesota NCAA</t>
-  </si>
-  <si>
-    <t>Mississippi State NCAA</t>
-  </si>
-  <si>
-    <t>Montana NCAA</t>
-  </si>
-  <si>
-    <t>Nevada NCAA</t>
-  </si>
-  <si>
-    <t>New Mexico NCAA</t>
-  </si>
-  <si>
-    <t>Niagara NCAA</t>
-  </si>
-  <si>
-    <t>North Carolina State NCAA</t>
-  </si>
-  <si>
-    <t>North Carolina NCAA</t>
-  </si>
-  <si>
-    <t>Northern Iowa NCAA</t>
-  </si>
-  <si>
-    <t>Oakland NCAA</t>
-  </si>
-  <si>
-    <t>Ohio NCAA</t>
-  </si>
-  <si>
-    <t>Oklahoma State NCAA</t>
-  </si>
-  <si>
-    <t>Oklahoma NCAA</t>
-  </si>
-  <si>
-    <t>Old Dominion NCAA</t>
-  </si>
-  <si>
-    <t>Pacific NCAA</t>
-  </si>
-  <si>
-    <t>Pennsylvania NCAA</t>
-  </si>
-  <si>
-    <t>Pittsburgh NCAA</t>
-  </si>
-  <si>
-    <t>Saint Mary's (CA) NCAA</t>
-  </si>
-  <si>
-    <t>Southeastern Louisiana NCAA</t>
-  </si>
-  <si>
-    <t>Southern Illinois NCAA</t>
-  </si>
-  <si>
-    <t>Stanford NCAA</t>
-  </si>
-  <si>
-    <t>Syracuse NCAA</t>
-  </si>
-  <si>
-    <t>Texas-El Paso NCAA</t>
-  </si>
-  <si>
-    <t>Texas Tech NCAA</t>
-  </si>
-  <si>
-    <t>Texas NCAA</t>
-  </si>
-  <si>
-    <t>UCLA NCAA</t>
-  </si>
-  <si>
-    <t>Utah State NCAA</t>
-  </si>
-  <si>
-    <t>Utah NCAA</t>
-  </si>
-  <si>
-    <t>Vermont NCAA</t>
-  </si>
-  <si>
-    <t>Villanova NCAA</t>
-  </si>
-  <si>
-    <t>Wake Forest NCAA</t>
-  </si>
-  <si>
-    <t>Washington NCAA</t>
-  </si>
-  <si>
-    <t>West Virginia NCAA</t>
-  </si>
-  <si>
-    <t>Winthrop NCAA</t>
-  </si>
-  <si>
-    <t>Wisconsin NCAA</t>
+    <t>Alabama A&amp;M</t>
+  </si>
+  <si>
+    <t>Alabama-Birmingham</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Boston College</t>
+  </si>
+  <si>
+    <t>Bucknell</t>
+  </si>
+  <si>
+    <t>Central Florida</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Chattanooga</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Creighton</t>
+  </si>
+  <si>
+    <t>Delaware State</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Eastern Kentucky</t>
+  </si>
+  <si>
+    <t>Fairleigh Dickinson</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>George Washington</t>
+  </si>
+  <si>
+    <t>Georgia Tech</t>
+  </si>
+  <si>
+    <t>Gonzaga</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Iowa State</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Louisiana State</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>Michigan State</t>
+  </si>
+  <si>
+    <t>Milwaukee</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Mississippi State</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>Niagara</t>
+  </si>
+  <si>
+    <t>North Carolina State</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>Northern Iowa</t>
+  </si>
+  <si>
+    <t>Oakland</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Oklahoma State</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Old Dominion</t>
+  </si>
+  <si>
+    <t>Pacific</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>Saint Mary's (CA)</t>
+  </si>
+  <si>
+    <t>Southeastern Louisiana</t>
+  </si>
+  <si>
+    <t>Southern Illinois</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>Texas-El Paso</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>Utah State</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Villanova</t>
+  </si>
+  <si>
+    <t>Wake Forest</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Winthrop</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
   </si>
 </sst>
 </file>
